--- a/data/case list.xlsx
+++ b/data/case list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="141">
   <si>
     <t>CB010</t>
   </si>
@@ -228,13 +228,229 @@
   </si>
   <si>
     <t>TW055</t>
+  </si>
+  <si>
+    <t>C5007</t>
+  </si>
+  <si>
+    <t>C5009</t>
+  </si>
+  <si>
+    <t>C5025</t>
+  </si>
+  <si>
+    <t>P2040</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\AB029\AB029-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\BN015\BN015-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\BP004\BP004-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\BS037\BS037-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\C5007\C5007-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\C5009\C5009-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\C5017\C5017-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\C5025\C5025-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\C5027\C5027-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\C5047\C5047-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\CB010\CB010-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\CC054\CC054-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\CV041\CV041-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\DE057\DE057-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\DF054\DF054-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\DH003\DH003-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\DM021\DM021-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\DM034\DM034-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\DM067\DM067-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\DP063\DP063-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\DS026\DS026-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\EG020\EG020-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\EL050\EL050-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\EP033\EP033-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\GC013\GC013-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\GC062\GC062-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\GD061\GD061-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\GH030\GH030-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\GM060\GM060-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\GS031\GS031-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\HD049\HD049-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\HH021\HH021-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\HN030\HN030-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\HS039\HS039-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\JI035\JI035-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\JL028\JL028-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\JPD016\JPD016-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\JW038\JW038-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\KJ027\KJ027-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\KT002\KT002-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\LA044\LA044-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\LB046\LB046-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\LB059\LB059-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\LD004\LD004-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\LE065\LE065-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\LT056\LT056-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\MH053\MH053-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\NM051\NM051-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\P2040\P2040-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\P2042\P2042-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\PA064\PA064-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\PB035\PB035-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\PC010\PC010-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\PR068\PR068-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\PS022\PS022-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\PT014\PT014-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\RB051\RB051-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\RG018\RG018-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\RP036\RP036-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\RP055\RP055-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\RS059\RS059-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\RT023\RT032-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\SB032\SB032-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\SL043\SL043-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\TC032\TC032-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\TW055\TW055-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\TW057\TW057-FN.dcm'</t>
+  </si>
+  <si>
+    <t>'D:\work\mechanical\project_for_graduate\matlab\mycode\data\VH053\VH053-FN.dcm'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +460,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -268,8 +490,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -564,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P65536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -575,493 +798,1309 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>99</v>
+      </c>
+      <c r="P27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>41</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>42</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>107</v>
+      </c>
+      <c r="P35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" t="s">
+        <v>110</v>
+      </c>
+      <c r="P38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>113</v>
+      </c>
+      <c r="P41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>114</v>
+      </c>
+      <c r="P42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>47</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>115</v>
+      </c>
+      <c r="P43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" t="s">
+        <v>116</v>
+      </c>
+      <c r="P44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>17</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>117</v>
+      </c>
+      <c r="P45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="C46" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" t="s">
+        <v>118</v>
+      </c>
+      <c r="P46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>18</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>19</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>120</v>
+      </c>
+      <c r="P48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>20</v>
       </c>
       <c r="C49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>21</v>
       </c>
       <c r="C50" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" t="s">
+        <v>122</v>
+      </c>
+      <c r="P50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="C51" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" t="s">
+        <v>123</v>
+      </c>
+      <c r="P51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="C52" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" t="s">
+        <v>124</v>
+      </c>
+      <c r="P52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="C53" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" t="s">
+        <v>125</v>
+      </c>
+      <c r="P53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="C54" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>126</v>
+      </c>
+      <c r="P54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="C55" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" t="s">
+        <v>127</v>
+      </c>
+      <c r="P55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="C56" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>128</v>
+      </c>
+      <c r="P56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="C57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" t="s">
+        <v>129</v>
+      </c>
+      <c r="P57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="C58" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>130</v>
+      </c>
+      <c r="P58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="C59" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="G59" t="s">
+        <v>131</v>
+      </c>
+      <c r="P59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="C60" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="C61" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" t="s">
+        <v>133</v>
+      </c>
+      <c r="P61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="C62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" t="s">
+        <v>134</v>
+      </c>
+      <c r="P62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="C63" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" t="s">
+        <v>135</v>
+      </c>
+      <c r="P63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="C64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="3:3">
+      <c r="D64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" t="s">
+        <v>136</v>
+      </c>
+      <c r="P64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="3:16">
       <c r="C65" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="3:3">
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
+        <v>137</v>
+      </c>
+      <c r="P65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="3:16">
       <c r="C66" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="3:3">
+      <c r="D66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" t="s">
+        <v>138</v>
+      </c>
+      <c r="P66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="3:16">
       <c r="C67" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="3:3">
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>139</v>
+      </c>
+      <c r="P67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16">
       <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>140</v>
+      </c>
+      <c r="P68" t="s">
         <v>21</v>
       </c>
     </row>
